--- a/data.xlsx
+++ b/data.xlsx
@@ -199,10 +199,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Item</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>現在している行動(enumでMove作成)</t>
     <rPh sb="0" eb="2">
       <t>ゲンザイ</t>
@@ -232,16 +228,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Move</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>膀胱ゲージの量(MAX200)</t>
+    <t>ItemType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerMove</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>膀胱ゲージの量(1秒1増加、MAX180)</t>
     <rPh sb="0" eb="2">
       <t>ボウコウ</t>
     </rPh>
     <rPh sb="6" eb="7">
       <t>リョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゾウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -329,9 +335,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,14 +344,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -635,7 +641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -656,23 +664,23 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
@@ -694,7 +702,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -708,7 +716,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -754,27 +762,27 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -836,8 +844,8 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="8" t="s">
-        <v>34</v>
+      <c r="F17" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -860,17 +868,17 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -887,7 +895,7 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -903,7 +911,7 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -919,7 +927,7 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -935,7 +943,7 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -947,10 +955,10 @@
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>40</v>
       </c>
     </row>
